--- a/topics.xlsx
+++ b/topics.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,107 +390,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="20.19921875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.19921875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>A</t>
         </is>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,19 +18,25 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,15 +49,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -390,19 +401,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.19921875"/>
+    <col width="4.1796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="20.1796875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B1" t="inlineStr">
@@ -410,14 +422,14 @@
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -430,14 +442,14 @@
           <t>Html</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -455,14 +467,14 @@
           <t>Basic</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -480,14 +492,14 @@
           <t>Element</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -505,14 +517,188 @@
           <t>Tag</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nested</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A1048576 A1:A9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -49,20 +49,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -403,14 +403,14 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="4.1796875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.1796875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" style="2" width="4.1796875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="20.1796875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,7 +676,7 @@
     <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A10">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -688,7 +688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A1048576 A1:A9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -699,6 +699,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -49,88 +49,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -403,14 +335,14 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="4.1796875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="20.1796875"/>
+    <col width="4.1796875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="20.1796875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,7 +608,7 @@
     <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A10">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -688,7 +620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A1048576 A1:A9">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -699,6 +631,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -63,6 +63,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,44 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Nesting</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,88 +87,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -403,280 +373,196 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="4.1796875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="20.1796875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" style="2" width="4.1796875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="20.1796875"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tag</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nested</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tag</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A10">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -688,7 +574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A1048576 A1:A9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -699,6 +585,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
   <si>
     <t>Programming Language</t>
   </si>
@@ -22,21 +28,48 @@
     <t>B</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Parenthood</t>
+  </si>
+  <si>
     <t>Html</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Myq Words</t>
+  </si>
+  <si>
+    <t>Phrases</t>
+  </si>
+  <si>
+    <t>Popular 1000</t>
+  </si>
+  <si>
+    <t>Popular 2000</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
   <si>
     <t>Basic</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -44,9 +77,6 @@
   </si>
   <si>
     <t>Nesting</t>
-  </si>
-  <si>
-    <t>Tag</t>
   </si>
 </sst>
 </file>
@@ -77,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -85,17 +115,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -371,197 +466,348 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="4.1796875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="20.1796875"/>
+    <col customWidth="1" max="1" min="1" style="8" width="4.1796875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="20.1796875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="11.7265625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="6" width="10.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row customFormat="1" r="1" s="1" spans="1:7">
+      <c r="A1" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="n">
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="4" spans="1:7" thickBot="1">
+      <c r="A3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="6" spans="1:7">
+      <c r="A10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="6" spans="1:7" thickBot="1">
+      <c r="A11" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" r="12" s="1" spans="1:7">
+      <c r="A12" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="4" spans="1:7" thickBot="1">
+      <c r="A15" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7"/>
   </sheetData>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A20 A7">
+    <cfRule priority="5" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
@@ -572,9 +818,41 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule priority="4" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A1048576 A1:A9">
+  <conditionalFormatting sqref="A4">
+    <cfRule priority="2" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule priority="3" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6 A8:A1048576">
+    <cfRule priority="18" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Life</t>
   </si>
@@ -43,7 +43,10 @@
     <t>Html</t>
   </si>
   <si>
-    <t>Definitions</t>
+    <t>Definitions 1000</t>
+  </si>
+  <si>
+    <t>Definitions 2000</t>
   </si>
   <si>
     <t>Myq Words</t>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>Popular 2000</t>
+  </si>
+  <si>
+    <t>Popular 3000</t>
   </si>
   <si>
     <t>Success</t>
@@ -107,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,24 +163,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -186,9 +179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,17 +456,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="4.1796875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="20.1796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="11.7265625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="14.36328125"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="6" width="10.6328125"/>
   </cols>
   <sheetData>
@@ -503,7 +493,7 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="3" s="4" spans="1:7" thickBot="1">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -566,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -594,10 +584,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" s="6" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="n">
         <v>10</v>
       </c>
@@ -608,10 +598,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" s="6" spans="1:7" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="8" t="n">
         <v>11</v>
       </c>
@@ -622,75 +612,69 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" r="12" s="1" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="6" spans="1:7">
       <c r="A12" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="6" spans="1:7" thickBot="1">
       <c r="A13" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" s="1" spans="1:7">
       <c r="A14" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="4" spans="1:7" thickBot="1">
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>1</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -704,32 +688,26 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="4" spans="1:7" thickBot="1">
       <c r="A17" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -744,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -764,13 +742,13 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -784,18 +762,58 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7"/>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7"/>
   </sheetData>
-  <conditionalFormatting sqref="A20 A7">
+  <conditionalFormatting sqref="A7:A8 A22">
     <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Life</t>
   </si>
@@ -22,12 +22,15 @@
     <t>A</t>
   </si>
   <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>Programming Language</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>Parenthood</t>
+  </si>
+  <si>
+    <t>Numeral System</t>
   </si>
   <si>
     <t>Html</t>
@@ -113,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,11 +169,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -179,6 +198,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,18 +481,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="4.1796875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="20.1796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="14.36328125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="6" width="10.6328125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="20.1796875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="11" width="14.36328125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="10.6328125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:7">
@@ -481,40 +506,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" s="11" spans="1:7">
       <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="3" s="4" spans="1:7" thickBot="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="4" spans="1:7" thickBot="1">
+      <c r="A4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -527,8 +549,8 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
+      <c r="D5" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,26 +558,26 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" s="11" spans="1:7">
       <c r="A7" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -569,8 +591,8 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -578,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -592,71 +614,68 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" s="11" spans="1:7">
       <c r="A11" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="6" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13" s="6" spans="1:7" thickBot="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="n">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" s="1" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -665,49 +684,43 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="11" spans="1:7" thickBot="1">
       <c r="A16" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="4" spans="1:7" thickBot="1">
+    <row customFormat="1" r="17" s="1" spans="1:7">
       <c r="A17" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -716,19 +729,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -736,38 +746,32 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="20" s="4" spans="1:7" thickBot="1">
       <c r="A20" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -776,19 +780,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -796,24 +800,84 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="11" spans="1:7" thickBot="1">
+      <c r="A25" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7"/>
+      <c r="F25" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7"/>
   </sheetData>
-  <conditionalFormatting sqref="A7:A8 A22">
+  <conditionalFormatting sqref="A9:A11 A25">
     <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
@@ -847,7 +911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
@@ -869,7 +933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6 A8:A1048576">
+  <conditionalFormatting sqref="A3:A8 A10:A1048576">
     <cfRule priority="18" type="colorScale">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,86 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Programming Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Happiness</t>
-  </si>
-  <si>
-    <t>Parenthood</t>
-  </si>
-  <si>
-    <t>Numeral System</t>
-  </si>
-  <si>
-    <t>Html</t>
-  </si>
-  <si>
-    <t>Definitions 1000</t>
-  </si>
-  <si>
-    <t>Definitions 2000</t>
-  </si>
-  <si>
-    <t>Myq Words</t>
-  </si>
-  <si>
-    <t>Phrases</t>
-  </si>
-  <si>
-    <t>Popular 1000</t>
-  </si>
-  <si>
-    <t>Popular 2000</t>
-  </si>
-  <si>
-    <t>Popular 3000</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Nesting</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,33 +104,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -483,402 +403,572 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="4.1796875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="20.1796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="11" width="14.36328125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="10.6328125"/>
+    <col width="4.1796875" customWidth="1" style="8" min="1" max="1"/>
+    <col width="20.1796875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="14.36328125" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="10.6328125" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="11" spans="1:7">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="11">
       <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="4" spans="1:7" thickBot="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="4" thickBot="1">
       <c r="A4" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Happiness</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" s="11" spans="1:7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Parenthood</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
       <c r="A7" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Numeral System</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Definitions 1000</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" s="11" spans="1:7">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Definitions 2000</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" s="11">
       <c r="A11" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Myq Words</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Phrases</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Popular 1000</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="11" spans="1:7" thickBot="1">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Popular 2000</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="11" thickBot="1">
       <c r="A16" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" s="1" spans="1:7">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Popular 3000</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" customFormat="1" s="1">
       <c r="A17" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Parenthood</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="20" s="4" spans="1:7" thickBot="1">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="4" thickBot="1">
       <c r="A20" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="11" spans="1:7" thickBot="1">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nesting</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="11" thickBot="1">
       <c r="A25" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <conditionalFormatting sqref="A9:A11 A25">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -890,7 +980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -900,7 +990,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -912,7 +1002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -922,7 +1012,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -934,7 +1024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8 A10:A1048576">
-    <cfRule priority="18" type="colorScale">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -945,6 +1035,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -39,7 +39,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -89,43 +89,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,22 +382,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="4.1796875" customWidth="1" style="8" min="1" max="1"/>
-    <col width="20.1796875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
-    <col width="14.36328125" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
-    <col width="10.6328125" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="4.19921875" customWidth="1" style="6" min="1" max="1"/>
+    <col width="20.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="14.3984375" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="10.59765625" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -430,8 +411,8 @@
         </is>
       </c>
     </row>
-    <row r="2" s="11">
-      <c r="A2" s="8" t="n">
+    <row r="2">
+      <c r="A2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -439,14 +420,14 @@
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -454,29 +435,29 @@
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A4" s="8" t="n">
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="A4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -489,14 +470,14 @@
           <t>Happiness</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -509,14 +490,14 @@
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="7" s="11">
-      <c r="A7" s="8" t="n">
+    <row r="7">
+      <c r="A7" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -529,445 +510,465 @@
           <t>Numeral System</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="n">
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
+      <c r="A8" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Square Number</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Definitions 1000</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Definitions 2000</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="11" s="11">
-      <c r="A11" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Myq Words</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Phrases</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Popular 1000</t>
         </is>
       </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Popular 2000</t>
         </is>
       </c>
-      <c r="D15" s="10" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="11" thickBot="1">
-      <c r="A16" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A17" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Popular 3000</t>
         </is>
       </c>
-      <c r="D16" s="10" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="17" customFormat="1" s="1">
-      <c r="A17" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
+    <row r="18" customFormat="1" s="1">
+      <c r="A18" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>Life</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="E18" s="10" t="inlineStr">
+      <c r="E19" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E19" s="10" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A20" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="A21" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="F21" s="10" t="inlineStr">
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Empty</t>
         </is>
       </c>
-      <c r="F22" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Nesting</t>
         </is>
       </c>
-      <c r="F24" s="10" t="inlineStr">
+      <c r="F25" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="11" thickBot="1">
-      <c r="A25" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="8">
+      <c r="A26" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="F25" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
+      <c r="F26" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
-  <conditionalFormatting sqref="A9:A11 A25">
+  <conditionalFormatting sqref="A10:A12 A26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1023,7 +1024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A8 A10:A1048576">
+  <conditionalFormatting sqref="A3:A1048576">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE7469-012E-4B5D-BEE0-86C03BE8E70B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BE5D4C-704A-455E-A97B-6F52D0A711B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Life</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Numbers</t>
+  </si>
+  <si>
+    <t>Number Types</t>
+  </si>
+  <si>
+    <t>Composite Number</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -180,42 +186,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -232,15 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,7 +499,7 @@
     <col min="1" max="1" width="4.19921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -749,7 +715,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="5">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -766,7 +732,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -783,7 +749,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -800,7 +766,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -817,7 +783,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -830,64 +796,58 @@
         <v>9</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>1</v>
+      <c r="B24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,10 +864,10 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,13 +884,13 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -941,18 +901,58 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:A11 A27">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="A9:A11">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -964,16 +964,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -984,9 +974,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -996,7 +984,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1008,7 +1008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -91,30 +91,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,19 +455,19 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="4.19921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.19921875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
-    <col width="14.3984375" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
-    <col width="16.296875" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="5" width="4.19921875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="20.19921875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="11" width="14.3984375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="16.296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
+    <row customFormat="1" r="1" s="1">
       <c r="A1" s="4" t="n">
         <v>1</v>
       </c>
@@ -444,7 +512,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15" r="4" s="8" thickBot="1">
       <c r="A4" s="5" t="n">
         <v>4</v>
       </c>
@@ -679,7 +747,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="11" thickBot="1">
+    <row customHeight="1" ht="15" r="16" s="11" thickBot="1">
       <c r="A16" s="5" t="n">
         <v>16</v>
       </c>
@@ -699,7 +767,7 @@
         </is>
       </c>
     </row>
-    <row r="17" customFormat="1" s="1">
+    <row customFormat="1" r="17" s="1">
       <c r="A17" s="5" t="n">
         <v>17</v>
       </c>
@@ -799,7 +867,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="11">
+    <row customHeight="1" ht="15" r="21" s="11">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
@@ -824,7 +892,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="11">
+    <row customHeight="1" ht="15" r="22" s="11">
       <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
@@ -849,7 +917,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="11">
+    <row customHeight="1" ht="15" r="23" s="11">
       <c r="A23" s="5" t="n">
         <v>23</v>
       </c>
@@ -874,7 +942,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="11">
+    <row customHeight="1" ht="15" r="24" s="11">
       <c r="A24" s="5" t="n">
         <v>24</v>
       </c>
@@ -899,7 +967,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="15" r="25" s="8" thickBot="1">
       <c r="A25" s="5" t="n">
         <v>25</v>
       </c>
@@ -1044,7 +1112,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="11">
+    <row customHeight="1" ht="15" r="30" s="11">
       <c r="A30" s="5" t="n">
         <v>30</v>
       </c>
@@ -1077,7 +1145,7 @@
     <row r="31"/>
   </sheetData>
   <conditionalFormatting sqref="A9:A11">
-    <cfRule type="colorScale" priority="8">
+    <cfRule priority="8" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1089,7 +1157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1099,7 +1167,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule priority="7" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1111,7 +1179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17:A30">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1121,7 +1189,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1133,7 +1201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="colorScale" priority="21">
+    <cfRule priority="21" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1144,6 +1212,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -91,98 +91,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -455,19 +387,19 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" zoomScale="180" zoomScaleNormal="180">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="4.19921875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="20.19921875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="11" width="14.3984375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="16.296875"/>
+    <col width="4.19921875" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.19921875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="14.3984375" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="16.296875" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="4" t="n">
         <v>1</v>
       </c>
@@ -512,7 +444,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="4" s="8" thickBot="1">
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A4" s="5" t="n">
         <v>4</v>
       </c>
@@ -747,7 +679,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16" s="11" thickBot="1">
+    <row r="16" ht="15" customHeight="1" s="11" thickBot="1">
       <c r="A16" s="5" t="n">
         <v>16</v>
       </c>
@@ -767,7 +699,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="17" s="1">
+    <row r="17" customFormat="1" s="1">
       <c r="A17" s="5" t="n">
         <v>17</v>
       </c>
@@ -867,7 +799,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="21" s="11">
+    <row r="21" ht="15" customHeight="1" s="11">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
@@ -892,7 +824,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="22" s="11">
+    <row r="22" ht="15" customHeight="1" s="11">
       <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
@@ -917,7 +849,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="23" s="11">
+    <row r="23" ht="15" customHeight="1" s="11">
       <c r="A23" s="5" t="n">
         <v>23</v>
       </c>
@@ -942,7 +874,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="24" s="11">
+    <row r="24" ht="15" customHeight="1" s="11">
       <c r="A24" s="5" t="n">
         <v>24</v>
       </c>
@@ -967,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="25" s="8" thickBot="1">
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A25" s="5" t="n">
         <v>25</v>
       </c>
@@ -1112,7 +1044,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="30" s="11">
+    <row r="30" ht="15" customHeight="1" s="11">
       <c r="A30" s="5" t="n">
         <v>30</v>
       </c>
@@ -1145,7 +1077,7 @@
     <row r="31"/>
   </sheetData>
   <conditionalFormatting sqref="A9:A11">
-    <cfRule priority="8" type="colorScale">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1157,7 +1089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1167,7 +1099,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule priority="7" type="colorScale">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1179,7 +1111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17:A30">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1189,7 +1121,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1201,7 +1133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule priority="21" type="colorScale">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1212,6 +1144,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/topics.xlsx
+++ b/topics.xlsx
@@ -128,6 +128,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -128,74 +128,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -39,7 +39,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -89,24 +89,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -120,9 +107,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,18 +385,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="4.19921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="20.09765625" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="16.296875" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="20.19921875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="20.09765625" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="16.296875" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -436,7 +423,7 @@
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -451,7 +438,7 @@
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -486,7 +473,7 @@
           <t>Happiness</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -506,7 +493,7 @@
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -526,7 +513,7 @@
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -546,7 +533,7 @@
           <t>Html</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -566,7 +553,7 @@
           <t>Definitions 1000</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -586,13 +573,13 @@
           <t>Definitions 2000</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="11" s="8">
+    <row r="11">
       <c r="A11" s="5" t="n">
         <v>11</v>
       </c>
@@ -606,7 +593,7 @@
           <t>Definitions Mathematics</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -626,7 +613,7 @@
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -646,7 +633,7 @@
           <t>Myq Words</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -666,7 +653,7 @@
           <t>Phrases</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -686,7 +673,7 @@
           <t>Popular 1000</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -706,13 +693,13 @@
           <t>Popular 2000</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
+      <c r="D16" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="8" thickBot="1">
+    <row r="17" ht="15" customHeight="1" s="11" thickBot="1">
       <c r="A17" s="5" t="n">
         <v>17</v>
       </c>
@@ -726,7 +713,7 @@
           <t>Popular 3000</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -776,7 +763,7 @@
           <t>Bad Parents</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -801,13 +788,13 @@
           <t>Basic</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="21">
+    <row r="21" s="11">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
@@ -823,16 +810,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
+          <t>Attributes</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="8">
+    <row r="22">
       <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
@@ -848,41 +835,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tag</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="8">
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="11">
       <c r="A23" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Numeral System</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="8">
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="11">
       <c r="A24" s="5" t="n">
         <v>24</v>
       </c>
@@ -898,16 +885,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Number Types</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="8">
+          <t>Numeral System</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="11">
       <c r="A25" s="5" t="n">
         <v>25</v>
       </c>
@@ -923,71 +910,66 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Composite Number</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
+          <t>Number Types</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="11">
       <c r="A26" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>Square Number</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Composite Number</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A27" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>Square Number</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="11">
       <c r="A28" s="5" t="n">
         <v>28</v>
       </c>
@@ -1003,15 +985,15 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="inlineStr">
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1038,12 +1020,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1068,46 +1050,106 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Nesting</t>
         </is>
       </c>
-      <c r="F30" s="7" t="inlineStr">
+      <c r="F32" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="8" thickBot="1">
-      <c r="A31" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="11">
+      <c r="A33" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="32"/>
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A9:A12">
     <cfRule type="colorScale" priority="8">
@@ -1143,7 +1185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9 A12 A14 A16 A18:A31">
+  <conditionalFormatting sqref="A5 A7 A9 A12 A14 A16 A18:A33">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -107,8 +107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -385,18 +383,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="4.19921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.19921875" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
-    <col width="20.09765625" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
-    <col width="16.296875" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="20.19921875" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="20.09765625" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="16.296875" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -423,7 +421,7 @@
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -438,7 +436,7 @@
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -473,7 +471,7 @@
           <t>Happiness</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -493,7 +491,7 @@
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -513,7 +511,7 @@
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -533,7 +531,7 @@
           <t>Html</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -553,7 +551,7 @@
           <t>Definitions 1000</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -573,13 +571,13 @@
           <t>Definitions 2000</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" s="9">
       <c r="A11" s="5" t="n">
         <v>11</v>
       </c>
@@ -590,10 +588,10 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Definitions Mathematics</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
+          <t>Definitions 5000</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -610,12 +608,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mathematics</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Definitions Mathematics</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -630,12 +628,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Myq Words</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -650,12 +648,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phrases</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>C</t>
+          <t>Myq Words</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -670,12 +668,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Popular 1000</t>
-        </is>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Phrases</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -690,16 +688,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Popular 2000</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="11" thickBot="1">
+          <t>Popular 1000</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="5" t="n">
         <v>17</v>
       </c>
@@ -710,112 +708,102 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Popular 3000</t>
-        </is>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
+          <t>Popular 2000</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="18" customFormat="1" s="1">
+    <row r="18" ht="15" customHeight="1" s="9">
       <c r="A18" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Parenthood</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Popular 3000</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="9" thickBot="1">
       <c r="A19" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Life</t>
+          <t>English</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parenthood</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Bad Parents</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
+          <t>Popular 5000</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="1" s="1">
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" s="11">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Parenthood</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Programming Language</t>
+          <t>Life</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Parenthood</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>Bad Parents</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -835,16 +823,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="11">
+    <row r="23">
       <c r="A23" s="5" t="n">
         <v>23</v>
       </c>
@@ -860,66 +848,66 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tag</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="11">
+          <t>Attributes</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="5" t="n">
         <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Numeral System</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="11">
+    <row r="25" ht="15" customHeight="1" s="9">
       <c r="A25" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Number Types</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="11">
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="9">
       <c r="A26" s="5" t="n">
         <v>26</v>
       </c>
@@ -935,101 +923,91 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Composite Number</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
+          <t>Numeral System</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="9">
       <c r="A27" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>Square Number</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="11">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Number Types</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="9">
       <c r="A28" s="5" t="n">
         <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Programming Language</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Numbers</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F28" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+          <t>Composite Number</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F29" s="10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>Square Number</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="9">
       <c r="A30" s="5" t="n">
         <v>30</v>
       </c>
@@ -1045,15 +1023,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="F30" s="10" t="inlineStr">
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1080,12 +1058,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1110,16 +1088,16 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nesting</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="11">
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="5" t="n">
         <v>33</v>
       </c>
@@ -1135,23 +1113,233 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Element</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nesting</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="9">
+      <c r="A35" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="F33" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="34"/>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="9">
+      <c r="A36" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Doctype</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Heading</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
-  <conditionalFormatting sqref="A9:A12">
+  <conditionalFormatting sqref="A9:A13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1185,7 +1373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9 A12 A14 A16 A18:A33">
+  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19:A40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -383,10 +383,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -395,6 +395,7 @@
     <col width="20.19921875" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
     <col width="20.09765625" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
     <col width="16.296875" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="14.19921875" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -533,22 +534,22 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="9">
       <c r="A9" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Definitions 1000</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
@@ -568,16 +569,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Definitions 2000</t>
+          <t>Definitions 1000</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="5" t="n">
         <v>11</v>
       </c>
@@ -588,12 +589,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Definitions 5000</t>
+          <t>Definitions 2000</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -608,7 +609,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Definitions Mathematics</t>
+          <t>Definitions 5000</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -628,12 +629,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Definitions Mathematics</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -648,12 +649,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Myq Words</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -668,12 +669,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phrases</t>
+          <t>Myq Words</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -688,12 +689,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Popular 1000</t>
+          <t>Phrases</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -708,16 +709,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Popular 2000</t>
+          <t>Popular 1000</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="5" t="n">
         <v>18</v>
       </c>
@@ -728,7 +729,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Popular 3000</t>
+          <t>Popular 2000</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
@@ -737,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="9" thickBot="1">
+    <row r="19" ht="15" customHeight="1" s="9">
       <c r="A19" s="5" t="n">
         <v>19</v>
       </c>
@@ -748,62 +749,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Popular 5000</t>
+          <t>Popular 3000</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" customFormat="1" s="1">
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="9" thickBot="1">
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Parenthood</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Popular 5000</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" customFormat="1" s="1">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Life</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Bad Parents</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -813,17 +809,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Programming Language</t>
+          <t>Life</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Parenthood</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Bad Parents</t>
         </is>
       </c>
       <c r="E22" s="7" t="inlineStr">
@@ -848,12 +844,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Attributes</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -873,16 +869,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="9">
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="5" t="n">
         <v>25</v>
       </c>
@@ -898,12 +894,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -913,22 +909,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Numeral System</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -938,22 +934,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Number Types</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -973,37 +969,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Composite Number</t>
+          <t>Numeral System</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="9">
       <c r="A29" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>Square Number</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Number Types</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1013,61 +1009,51 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Programming Language</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Numbers</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+          <t>Composite Number</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A31" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>Square Number</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="9">
       <c r="A32" s="5" t="n">
         <v>32</v>
       </c>
@@ -1083,12 +1069,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F32" s="7" t="inlineStr">
@@ -1118,12 +1104,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F33" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1148,16 +1134,16 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nesting</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="F34" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="5" t="n">
         <v>35</v>
       </c>
@@ -1173,21 +1159,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="5" t="n">
         <v>36</v>
       </c>
@@ -1203,12 +1189,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>Nesting</t>
         </is>
       </c>
       <c r="F36" s="7" t="inlineStr">
@@ -1217,7 +1203,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15" customHeight="1" s="9">
       <c r="A37" s="5" t="n">
         <v>37</v>
       </c>
@@ -1238,16 +1224,16 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Doctype</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F37" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="9">
       <c r="A38" s="5" t="n">
         <v>38</v>
       </c>
@@ -1268,12 +1254,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="F38" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1298,12 +1284,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Doctype</t>
         </is>
       </c>
       <c r="F39" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1328,18 +1314,108 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Heading</t>
         </is>
       </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="41"/>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Interactive Mode</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
-  <conditionalFormatting sqref="A9:A13">
+  <conditionalFormatting sqref="A10:A14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1373,7 +1449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19:A40">
+  <conditionalFormatting sqref="A5 A7 A10 A18 A12:A16 A20:A42">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -106,7 +106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,19 +382,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="4.19921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.19921875" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
-    <col width="20.09765625" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="16.296875" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="14.19921875" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
+    <col width="20.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="20.09765625" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="16.296875" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="14.19921875" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -538,7 +537,7 @@
         </is>
       </c>
     </row>
-    <row r="9" s="9">
+    <row r="9">
       <c r="A9" s="5" t="n">
         <v>9</v>
       </c>
@@ -738,7 +737,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="9">
+    <row r="19" ht="15" customHeight="1" s="8">
       <c r="A19" s="5" t="n">
         <v>19</v>
       </c>
@@ -758,7 +757,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="9" thickBot="1">
+    <row r="20" ht="15" customHeight="1" s="8" thickBot="1">
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
@@ -903,7 +902,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="9">
+    <row r="26" ht="15" customHeight="1" s="8">
       <c r="A26" s="5" t="n">
         <v>26</v>
       </c>
@@ -928,7 +927,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="9">
+    <row r="27" ht="15" customHeight="1" s="8">
       <c r="A27" s="5" t="n">
         <v>27</v>
       </c>
@@ -953,7 +952,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="9">
+    <row r="28" ht="15" customHeight="1" s="8">
       <c r="A28" s="5" t="n">
         <v>28</v>
       </c>
@@ -978,7 +977,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="9">
+    <row r="29" ht="15" customHeight="1" s="8">
       <c r="A29" s="5" t="n">
         <v>29</v>
       </c>
@@ -1003,7 +1002,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="9">
+    <row r="30" ht="15" customHeight="1" s="8">
       <c r="A30" s="5" t="n">
         <v>30</v>
       </c>
@@ -1053,7 +1052,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="9">
+    <row r="32" ht="15" customHeight="1" s="8">
       <c r="A32" s="5" t="n">
         <v>32</v>
       </c>
@@ -1203,7 +1202,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="9">
+    <row r="37" ht="15" customHeight="1" s="8">
       <c r="A37" s="5" t="n">
         <v>37</v>
       </c>
@@ -1233,7 +1232,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="9">
+    <row r="38" ht="15" customHeight="1" s="8">
       <c r="A38" s="5" t="n">
         <v>38</v>
       </c>
@@ -1413,7 +1412,37 @@
         </is>
       </c>
     </row>
-    <row r="44"/>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <conditionalFormatting sqref="A10:A14">
     <cfRule type="colorScale" priority="8">

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -384,8 +384,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phrases</t>
+          <t>Phrases 1000</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -382,10 +382,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -637,7 +637,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" s="8">
       <c r="A14" s="5" t="n">
         <v>14</v>
       </c>
@@ -648,12 +648,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Definitions Myq</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Myq Words</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phrases 1000</t>
+          <t>Myq Words</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Popular 1000</t>
+          <t>Phrases 1000</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -728,16 +728,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Popular 2000</t>
+          <t>Popular 1000</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="8">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="5" t="n">
         <v>19</v>
       </c>
@@ -748,7 +748,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Popular 3000</t>
+          <t>Popular 2000</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="8" thickBot="1">
+    <row r="20" ht="15" customHeight="1" s="8">
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
@@ -768,62 +768,57 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Popular 5000</t>
+          <t>Popular 3000</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" customFormat="1" s="1">
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="8" thickBot="1">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Parenthood</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Popular 5000</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" customFormat="1" s="1">
       <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>Life</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Bad Parents</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -833,17 +828,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Programming Language</t>
+          <t>Life</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Parenthood</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Bad Parents</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
@@ -868,12 +863,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Attributes</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -893,16 +888,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="8">
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="5" t="n">
         <v>26</v>
       </c>
@@ -918,12 +913,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -938,17 +933,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -958,22 +953,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Numeral System</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -993,12 +988,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Number Types</t>
+          <t>Numeral System</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1018,71 +1013,66 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Composite Number</t>
+          <t>Number Types</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="8">
       <c r="A31" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
-        <is>
-          <t>Square Number</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Composite Number</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="8">
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
       <c r="A32" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>Square Number</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="8">
       <c r="A33" s="5" t="n">
         <v>33</v>
       </c>
@@ -1098,7 +1088,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1108,7 +1098,7 @@
       </c>
       <c r="F33" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1123,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F34" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1153,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
@@ -1193,16 +1183,16 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nesting</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="F36" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="8">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="5" t="n">
         <v>37</v>
       </c>
@@ -1218,17 +1208,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Nesting</t>
         </is>
       </c>
       <c r="F37" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1253,16 +1243,16 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F38" s="7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="8">
       <c r="A39" s="5" t="n">
         <v>39</v>
       </c>
@@ -1283,7 +1273,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Doctype</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="F39" s="7" t="inlineStr">
@@ -1313,12 +1303,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Doctype</t>
         </is>
       </c>
       <c r="F40" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1333,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="F41" s="7" t="inlineStr">
@@ -1373,7 +1363,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Heading</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="F42" s="7" t="inlineStr">
@@ -1393,22 +1383,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Interactive Mode</t>
+          <t>Heading</t>
         </is>
       </c>
       <c r="F43" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1433,18 +1423,48 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>Interactive Mode</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="F44" s="7" t="inlineStr">
+      <c r="F45" s="7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="45"/>
+    <row r="46"/>
   </sheetData>
-  <conditionalFormatting sqref="A10:A14">
+  <conditionalFormatting sqref="A10:A45">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1478,7 +1498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A10 A18 A12:A16 A20:A42">
+  <conditionalFormatting sqref="A5 A7 A10 A12:A45">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -39,7 +39,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -89,11 +89,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -107,6 +138,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,19 +424,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="4.19921875" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.19921875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="20.09765625" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="16.296875" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="14.19921875" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="20.19921875" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="20.09765625" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="16.296875" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="14.19921875" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -421,7 +463,7 @@
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -436,7 +478,7 @@
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -471,7 +513,7 @@
           <t>Happiness</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -491,7 +533,7 @@
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -511,7 +553,7 @@
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -531,7 +573,7 @@
           <t>Html</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -551,7 +593,7 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -571,7 +613,7 @@
           <t>Definitions 1000</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -591,7 +633,7 @@
           <t>Definitions 2000</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -611,7 +653,7 @@
           <t>Definitions 5000</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -631,13 +673,13 @@
           <t>Definitions Mathematics</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="14" s="8">
+    <row r="14">
       <c r="A14" s="5" t="n">
         <v>14</v>
       </c>
@@ -651,7 +693,7 @@
           <t>Definitions Myq</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -671,7 +713,7 @@
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -691,7 +733,7 @@
           <t>Myq Words</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
+      <c r="D16" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -711,7 +753,7 @@
           <t>Phrases 1000</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -731,7 +773,7 @@
           <t>Popular 1000</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -751,13 +793,13 @@
           <t>Popular 2000</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="8">
+    <row r="20" ht="15" customHeight="1" s="9">
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
@@ -771,13 +813,13 @@
           <t>Popular 3000</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="8" thickBot="1">
+    <row r="21" ht="15" customHeight="1" s="9" thickBot="1">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
@@ -791,7 +833,7 @@
           <t>Popular 5000</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -841,7 +883,7 @@
           <t>Bad Parents</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -866,7 +908,7 @@
           <t>Basic</t>
         </is>
       </c>
-      <c r="E24" s="7" t="inlineStr">
+      <c r="E24" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -891,7 +933,7 @@
           <t>Attributes</t>
         </is>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -916,13 +958,13 @@
           <t>Element</t>
         </is>
       </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="E26" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="8">
+    <row r="27" ht="15" customHeight="1" s="9">
       <c r="A27" s="5" t="n">
         <v>27</v>
       </c>
@@ -941,13 +983,13 @@
           <t>Tag</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="8">
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="9" thickBot="1">
       <c r="A28" s="5" t="n">
         <v>28</v>
       </c>
@@ -966,173 +1008,163 @@
           <t>Core</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E28" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="8">
-      <c r="A29" s="5" t="n">
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="1">
+      <c r="A29" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Absolute Value</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="9">
+      <c r="A30" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Composite Number</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="9">
+      <c r="A31" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Number Types</t>
+        </is>
+      </c>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="9">
+      <c r="A32" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Numeral System</t>
         </is>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E32" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="8">
-      <c r="A30" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="9">
+      <c r="A33" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Number Types</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="8">
-      <c r="A31" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A34" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Composite Number</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>Square Number</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A32" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="B32" s="6" t="inlineStr">
-        <is>
-          <t>Mathematics</t>
-        </is>
-      </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>Numbers</t>
-        </is>
-      </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>Square Number</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="8">
-      <c r="A33" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+    <row r="35" ht="15" customHeight="1" s="9">
       <c r="A35" s="5" t="n">
         <v>35</v>
       </c>
@@ -1148,15 +1180,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1183,12 +1215,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1213,16 +1245,16 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nesting</t>
-        </is>
-      </c>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="8">
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="5" t="n">
         <v>38</v>
       </c>
@@ -1238,21 +1270,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F38" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="8">
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="5" t="n">
         <v>39</v>
       </c>
@@ -1268,21 +1300,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="F39" s="7" t="inlineStr">
+          <t>Nesting</t>
+        </is>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15" customHeight="1" s="9">
       <c r="A40" s="5" t="n">
         <v>40</v>
       </c>
@@ -1303,16 +1335,16 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Doctype</t>
-        </is>
-      </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="9">
       <c r="A41" s="5" t="n">
         <v>41</v>
       </c>
@@ -1333,12 +1365,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1395,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Head</t>
-        </is>
-      </c>
-      <c r="F42" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Doctype</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1393,10 +1425,10 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Heading</t>
-        </is>
-      </c>
-      <c r="F43" s="7" t="inlineStr">
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1413,22 +1445,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Interactive Mode</t>
-        </is>
-      </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1443,28 +1475,88 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Heading</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Core</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Interactive Mode</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="F45" s="7" t="inlineStr">
+      <c r="F47" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="46"/>
+    <row r="48"/>
   </sheetData>
-  <conditionalFormatting sqref="A10:A45">
+  <conditionalFormatting sqref="A10:A47">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1498,7 +1590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A10 A12:A45">
+  <conditionalFormatting sqref="A5 A7 A10 A12:A47">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -136,8 +136,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Definitions 1000</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Definitions 2000</t>
+          <t>Definitions 1000</t>
         </is>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -650,12 +650,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Definitions 5000</t>
+          <t>Definitions 2000</t>
         </is>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Definitions Mathematics</t>
+          <t>Definitions 5000</t>
         </is>
       </c>
       <c r="D13" s="10" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Definitions Myq</t>
+          <t>Definitions Mathematics</t>
         </is>
       </c>
       <c r="D14" s="10" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Definitions Myq</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Myq Words</t>
+          <t>Mathematics</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Phrases 1000</t>
+          <t>Myq Words</t>
         </is>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Popular 1000</t>
+          <t>Phrases 1000</t>
         </is>
       </c>
       <c r="D18" s="10" t="inlineStr">
@@ -790,16 +790,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Popular 2000</t>
+          <t>Popular 1000</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="5" t="n">
         <v>20</v>
       </c>
@@ -810,7 +810,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Popular 3000</t>
+          <t>Popular 2000</t>
         </is>
       </c>
       <c r="D20" s="10" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="9" thickBot="1">
+    <row r="21" ht="15" customHeight="1" s="9">
       <c r="A21" s="5" t="n">
         <v>21</v>
       </c>
@@ -830,212 +830,207 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Popular 5000</t>
+          <t>Popular 3000</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" customFormat="1" s="1">
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="9" thickBot="1">
       <c r="A22" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Popular 5000</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" customFormat="1" s="1">
+      <c r="A23" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Life</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" s="9">
+      <c r="A24" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Life</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Parenthood</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Bad Parents</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E24" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+    <row r="25" s="9">
+      <c r="A25" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="E25" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+    <row r="26" s="9">
+      <c r="A26" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Attributes</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr">
+      <c r="E26" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+    <row r="27" s="9">
+      <c r="A27" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Element</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr">
+      <c r="E27" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="9">
-      <c r="A27" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="9">
+      <c r="A28" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Html</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Tag</t>
         </is>
       </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="9" thickBot="1">
-      <c r="A28" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="9">
+      <c r="A29" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Core</t>
         </is>
       </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A29" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>Mathematics</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Numbers</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Absolute Value</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>B</t>
+      <c r="E29" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1045,22 +1040,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Programming Language</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Composite Number</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1080,12 +1075,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Number Types</t>
+          <t>Absolute Value</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1100,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Numeral System</t>
+          <t>Composite Number</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1130,101 +1125,91 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Number Types</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="9">
+      <c r="A34" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Numeral System</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="9">
+      <c r="A35" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Numbers</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="E33" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
-      <c r="A34" s="13" t="n">
-        <v>34</v>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="6" thickBot="1">
+      <c r="A36" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>Mathematics</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>Square Number</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="9">
-      <c r="A35" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Attributes</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Programming Language</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Html</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Element</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+    <row r="37" ht="15" customHeight="1" s="9">
       <c r="A37" s="5" t="n">
         <v>37</v>
       </c>
@@ -1240,12 +1225,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Element</t>
+          <t>Attributes</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F37" s="10" t="inlineStr">
@@ -1275,12 +1260,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F38" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1305,16 +1290,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nesting</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="F39" s="10" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="5" t="n">
         <v>40</v>
       </c>
@@ -1330,21 +1315,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="F40" s="10" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="9">
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="5" t="n">
         <v>41</v>
       </c>
@@ -1360,12 +1345,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tag</t>
+          <t>Element</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Comment</t>
+          <t>Nesting</t>
         </is>
       </c>
       <c r="F41" s="10" t="inlineStr">
@@ -1374,7 +1359,7 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15" customHeight="1" s="9">
       <c r="A42" s="5" t="n">
         <v>42</v>
       </c>
@@ -1395,16 +1380,16 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Doctype</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="F42" s="10" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="9">
       <c r="A43" s="5" t="n">
         <v>43</v>
       </c>
@@ -1425,12 +1410,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Html</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="F43" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1440,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Head</t>
+          <t>Doctype</t>
         </is>
       </c>
       <c r="F44" s="10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1470,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Heading</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="F45" s="10" t="inlineStr">
@@ -1505,22 +1490,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Html</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Interactive Mode</t>
+          <t>Head</t>
         </is>
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1535,28 +1520,88 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Html</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Heading</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Core</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Interactive Mode</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Programming Language</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="F47" s="10" t="inlineStr">
+      <c r="F49" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="48"/>
+    <row r="50"/>
   </sheetData>
-  <conditionalFormatting sqref="A10:A47">
+  <conditionalFormatting sqref="A11:A49">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1590,7 +1635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A10 A12:A47">
+  <conditionalFormatting sqref="A5 A7 A11:A49">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9B945-BBB5-4EEE-AB43-EC532373E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B9935-7FB7-4CF9-B0A7-77077F5EF8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="52">
   <si>
     <t>Life</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Core</t>
-  </si>
-  <si>
     <t>Absolute Value</t>
   </si>
   <si>
@@ -173,6 +170,12 @@
   </si>
   <si>
     <t>Depth 5</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>Theory</t>
   </si>
 </sst>
 </file>
@@ -546,11 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,19 +568,19 @@
     <row r="1" spans="1:6" s="5" customFormat="1" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>1</v>
@@ -922,21 +925,22 @@
         <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>3</v>
@@ -961,10 +965,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,10 +979,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,59 +993,56 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
         <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,10 +1056,10 @@
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,7 +1073,7 @@
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>1</v>
@@ -1089,13 +1090,13 @@
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -1103,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,13 +1124,13 @@
         <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>3</v>
@@ -1157,10 +1158,10 @@
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>1</v>
@@ -1191,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>1</v>
@@ -1202,16 +1203,16 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1222,13 +1223,47 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2B9935-7FB7-4CF9-B0A7-77077F5EF8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659E7C67-44B9-47CF-BE84-4E6C951C666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Life</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Theory</t>
+  </si>
+  <si>
+    <t>Phrases 3000</t>
+  </si>
+  <si>
+    <t>Factors</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,11 +257,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -269,6 +337,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,15 +848,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,293 +865,286 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="E25" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="E33" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="E37" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="E39" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D40" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>27</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>26</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" t="s">
-        <v>36</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>1</v>
@@ -1090,10 +1161,10 @@
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,47 +1178,47 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
-      </c>
       <c r="F45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -1158,13 +1229,13 @@
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1175,10 +1246,10 @@
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,10 +1263,10 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -1209,7 +1280,7 @@
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>1</v>
@@ -1220,16 +1291,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -1237,32 +1308,66 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>26</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659E7C67-44B9-47CF-BE84-4E6C951C666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F12286-932E-47F4-92EF-B00B786A3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="61">
   <si>
     <t>Life</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>Factors</t>
+  </si>
+  <si>
+    <t>Paragraph</t>
+  </si>
+  <si>
+    <t>Break Line</t>
+  </si>
+  <si>
+    <t>Horizontal Line</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Non Breaking Space</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Preformatted Text</t>
   </si>
 </sst>
 </file>
@@ -323,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -346,6 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,11 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,7 +661,7 @@
     <col min="2" max="2" width="20.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.09765625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -989,18 +1011,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
       <c r="B31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
+      <c r="C31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,58 +1031,57 @@
         <v>4</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>6</v>
+      <c r="E34" s="18" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1</v>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,13 +1093,14 @@
         <v>9</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1085,10 +1108,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1099,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>3</v>
@@ -1113,58 +1136,55 @@
         <v>9</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="E40" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
         <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,10 +1198,10 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,7 +1215,7 @@
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>1</v>
@@ -1212,27 +1232,27 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,13 +1266,13 @@
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1263,13 +1283,13 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1280,13 +1300,13 @@
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1297,13 +1317,13 @@
         <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>4</v>
       </c>
@@ -1314,60 +1334,185 @@
         <v>29</v>
       </c>
       <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="F52" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D59" t="s">
         <v>26</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E59" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="F59" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D60" t="s">
         <v>26</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E60" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F12286-932E-47F4-92EF-B00B786A3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A48AD-0F52-40B2-8BD4-01CA1F01DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
   <si>
     <t>Life</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Preformatted Text</t>
+  </si>
+  <si>
+    <t>Multiples</t>
   </si>
 </sst>
 </file>
@@ -648,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1156,52 +1159,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E41" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
         <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
       </c>
       <c r="E43" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1216,10 @@
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,7 +1233,7 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>1</v>
@@ -1249,27 +1250,27 @@
         <v>28</v>
       </c>
       <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,13 +1284,13 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>3</v>
@@ -1317,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>3</v>
@@ -1334,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>3</v>
@@ -1351,25 +1352,24 @@
         <v>29</v>
       </c>
       <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
         <v>42</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         <v>29</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1438,10 +1438,10 @@
         <v>10</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>3</v>
@@ -1459,30 +1459,31 @@
         <v>57</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1493,26 +1494,43 @@
         <v>26</v>
       </c>
       <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430A48AD-0F52-40B2-8BD4-01CA1F01DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FF32D-4DE1-4DAF-BF29-8A927420B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
   <si>
     <t>Life</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>Multiples</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Toddler</t>
+  </si>
+  <si>
+    <t>Popular 4000</t>
+  </si>
+  <si>
+    <t>Phrases 2000</t>
+  </si>
+  <si>
+    <t>Phrases Myq</t>
+  </si>
+  <si>
+    <t>Digit</t>
   </si>
 </sst>
 </file>
@@ -369,8 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -837,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,273 +897,267 @@
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12" t="s">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>3</v>
+      <c r="E28" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
       <c r="B30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="E34" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="E35" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="E36" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="E37" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="12" t="s">
+      <c r="E38" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
       <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
@@ -1153,13 +1165,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="13" t="s">
         <v>2</v>
@@ -1168,126 +1180,111 @@
         <v>9</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
+      <c r="E46" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D47" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>6</v>
+      <c r="E47" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,13 +1295,13 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,13 +1312,13 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,13 +1329,13 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,13 +1346,13 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,171 +1363,273 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
         <v>29</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="F59" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="F60" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="F61" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="F62" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="F63" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="F64" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="F65" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D66" t="s">
         <v>26</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E66" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="F66" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D67" t="s">
         <v>26</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E67" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="5" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FF32D-4DE1-4DAF-BF29-8A927420B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE7FDB0-FA63-48C3-936D-0BDA1E209DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="69">
   <si>
     <t>Life</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Digit</t>
+  </si>
+  <si>
+    <t>Phrases Mathematics</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -389,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,307 +742,305 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>3</v>
+      <c r="B13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
+      <c r="B20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>3</v>
+      <c r="B21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1</v>
+      <c r="B22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12" t="s">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="E29" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="E31" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,53 +1065,53 @@
         <v>10</v>
       </c>
       <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="11" t="s">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="E35" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="E36" s="17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1117,17 +1119,16 @@
         <v>4</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -1135,40 +1136,40 @@
         <v>12</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>6</v>
+      <c r="E39" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>3</v>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,13 +1181,14 @@
         <v>9</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
       <c r="B42" s="13" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>3</v>
@@ -1208,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>3</v>
@@ -1222,22 +1224,21 @@
         <v>9</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>67</v>
+      <c r="D45" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>3</v>
@@ -1248,77 +1249,75 @@
       <c r="B46" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>53</v>
+      <c r="D46" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+      <c r="E48" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,10 +1331,10 @@
         <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,7 +1348,7 @@
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>1</v>
@@ -1366,27 +1365,27 @@
         <v>28</v>
       </c>
       <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
       <c r="F54" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,13 +1399,13 @@
         <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>3</v>
@@ -1434,7 +1433,7 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>3</v>
@@ -1451,7 +1450,7 @@
         <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>3</v>
@@ -1468,25 +1467,24 @@
         <v>29</v>
       </c>
       <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
         <v>42</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>1</v>
@@ -1504,7 +1502,7 @@
         <v>29</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>1</v>
@@ -1522,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>1</v>
@@ -1540,10 +1538,10 @@
         <v>29</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1555,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>3</v>
@@ -1576,30 +1574,31 @@
         <v>57</v>
       </c>
       <c r="E65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" t="s">
-        <v>43</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>4</v>
       </c>
@@ -1610,26 +1609,43 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="5" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE7FDB0-FA63-48C3-936D-0BDA1E209DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF98C4DA-52EC-42FC-87AB-8AAB5002C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="70">
   <si>
     <t>Life</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>SQLite</t>
-  </si>
-  <si>
     <t>Definitions 1000</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>Phrases Mathematics</t>
+  </si>
+  <si>
+    <t>Sqlite</t>
+  </si>
+  <si>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -393,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,19 +696,19 @@
     <row r="1" spans="1:6" s="5" customFormat="1" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -801,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>3</v>
@@ -812,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>1</v>
@@ -834,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>1</v>
@@ -845,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>3</v>
@@ -856,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>3</v>
@@ -868,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>6</v>
@@ -879,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>6</v>
@@ -890,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>1</v>
@@ -902,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>1</v>
@@ -914,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>1</v>
@@ -926,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>3</v>
@@ -938,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>3</v>
@@ -949,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>1</v>
@@ -960,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>6</v>
@@ -971,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>1</v>
@@ -982,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>3</v>
@@ -993,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>6</v>
@@ -1008,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>1</v>
@@ -1022,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>6</v>
@@ -1037,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>3</v>
@@ -1051,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>6</v>
@@ -1065,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>3</v>
@@ -1079,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>6</v>
@@ -1093,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>1</v>
@@ -1108,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>3</v>
@@ -1122,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>1</v>
@@ -1133,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>3</v>
@@ -1148,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>1</v>
@@ -1166,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>6</v>
@@ -1181,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>3</v>
@@ -1196,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>3</v>
@@ -1210,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>3</v>
@@ -1224,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>3</v>
@@ -1238,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>3</v>
@@ -1253,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>3</v>
@@ -1268,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>1</v>
@@ -1283,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>1</v>
@@ -1297,44 +1301,42 @@
         <v>9</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="50" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,13 +1347,13 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,10 +1364,10 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>1</v>
@@ -1379,16 +1381,16 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>4</v>
       </c>
@@ -1396,13 +1398,13 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,16 +1415,16 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>4</v>
       </c>
@@ -1430,10 +1432,10 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>3</v>
@@ -1447,10 +1449,10 @@
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>3</v>
@@ -1464,10 +1466,10 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>3</v>
@@ -1481,28 +1483,27 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>1</v>
@@ -1517,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>1</v>
@@ -1535,10 +1536,10 @@
         <v>10</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>1</v>
@@ -1553,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1571,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>59</v>
@@ -1589,33 +1590,34 @@
         <v>10</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>4</v>
       </c>
@@ -1623,29 +1625,46 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="D70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/topics.xlsx
+++ b/topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF98C4DA-52EC-42FC-87AB-8AAB5002C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2526F907-FBF6-48F3-AE60-59AD490625B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="71">
   <si>
     <t>Life</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Fraction</t>
+  </si>
+  <si>
+    <t>x`</t>
   </si>
 </sst>
 </file>
@@ -680,8 +683,8 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
